--- a/bombas.xlsx
+++ b/bombas.xlsx
@@ -5,17 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37d65558b03e4842/LINHAS DE PESQUISA/[BOOK] - MANUTENÇÃO E CONFIABILIDADE/bookdown-offroad/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37d65558b03e4842/Documentos/github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{39FB771C-58B1-4C01-8DBA-4394F8D3181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C357B2A6-E0C5-471A-AD77-B6935886AEB7}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:40009_{39FB771C-58B1-4C01-8DBA-4394F8D3181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C86DF0-4C8C-499D-B383-9C7FD93B7BC6}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="2565" windowWidth="16200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bombas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bombas!$A$1:$C$192</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -869,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="A1:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:XFD226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,18 +1368,18 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6500</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1374,7 +1390,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1385,7 +1401,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1396,7 +1412,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>539</v>
+        <v>627</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1407,7 +1423,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>627</v>
+        <v>763</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1418,7 +1434,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>763</v>
+        <v>1302</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1429,7 +1445,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1302</v>
+        <v>1396</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1440,7 +1456,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1396</v>
+        <v>1497</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1451,7 +1467,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1497</v>
+        <v>1788</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1462,7 +1478,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1788</v>
+        <v>2145</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1473,7 +1489,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2145</v>
+        <v>2291</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1484,7 +1500,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2291</v>
+        <v>2439</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1495,7 +1511,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2439</v>
+        <v>2544</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1506,7 +1522,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2544</v>
+        <v>2787</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1517,10 +1533,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2787</v>
+        <v>3177</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1528,7 +1544,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3177</v>
+        <v>3461</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1539,7 +1555,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3461</v>
+        <v>3547</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1550,7 +1566,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3547</v>
+        <v>3623</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1561,7 +1577,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3623</v>
+        <v>3725</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1572,7 +1588,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3725</v>
+        <v>4009</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1583,7 +1599,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4009</v>
+        <v>4097</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1594,7 +1610,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4097</v>
+        <v>4247</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1605,7 +1621,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4247</v>
+        <v>4370</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1616,7 +1632,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4370</v>
+        <v>4571</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1627,7 +1643,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4571</v>
+        <v>4909</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1638,7 +1654,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4909</v>
+        <v>4997</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1649,10 +1665,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4997</v>
+        <v>5246</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1660,7 +1676,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5246</v>
+        <v>5340</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1671,7 +1687,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5340</v>
+        <v>5600</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1682,7 +1698,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5600</v>
+        <v>5872</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1693,7 +1709,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5872</v>
+        <v>6057</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1704,7 +1720,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>6057</v>
+        <v>6179</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1715,7 +1731,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6179</v>
+        <v>6367</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1726,7 +1742,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6367</v>
+        <v>6432</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1737,18 +1753,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6432</v>
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1759,7 +1775,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1770,7 +1786,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>377</v>
+        <v>627</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1781,7 +1797,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1792,7 +1808,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>703</v>
+        <v>1084</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1803,7 +1819,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1084</v>
+        <v>1264</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1814,7 +1830,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1264</v>
+        <v>1352</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1825,7 +1841,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1352</v>
+        <v>1548</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1836,7 +1852,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1548</v>
+        <v>1696</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1847,7 +1863,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1696</v>
+        <v>1788</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1858,7 +1874,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1788</v>
+        <v>1964</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1869,7 +1885,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1964</v>
+        <v>2056</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1880,7 +1896,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2056</v>
+        <v>2261</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1891,7 +1907,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2261</v>
+        <v>2441</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1902,7 +1918,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2441</v>
+        <v>2577</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1913,7 +1929,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2577</v>
+        <v>2751</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1924,7 +1940,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2751</v>
+        <v>3038</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1935,7 +1951,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3038</v>
+        <v>3224</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1946,7 +1962,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3224</v>
+        <v>3362</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1957,7 +1973,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3362</v>
+        <v>3467</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1968,7 +1984,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3467</v>
+        <v>3547</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1979,7 +1995,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3547</v>
+        <v>3637</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1990,7 +2006,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3637</v>
+        <v>3861</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -2001,7 +2017,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3861</v>
+        <v>4009</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2012,7 +2028,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4009</v>
+        <v>4274</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2023,7 +2039,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4274</v>
+        <v>4660</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2034,7 +2050,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4660</v>
+        <v>4782</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -2045,7 +2061,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4782</v>
+        <v>4920</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2056,7 +2072,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4920</v>
+        <v>4997</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2067,10 +2083,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4997</v>
+        <v>5072</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -2078,7 +2094,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5072</v>
+        <v>5203</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2089,7 +2105,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5203</v>
+        <v>5372</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2100,7 +2116,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5372</v>
+        <v>5447</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2111,7 +2127,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5447</v>
+        <v>5675</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2122,7 +2138,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5675</v>
+        <v>5760</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -2133,7 +2149,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>5760</v>
+        <v>5914</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2144,7 +2160,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>5914</v>
+        <v>6068</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2155,7 +2171,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6068</v>
+        <v>6218</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2166,7 +2182,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6218</v>
+        <v>6383</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2177,7 +2193,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6383</v>
+        <v>6432</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2188,18 +2204,18 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6432</v>
+        <v>56</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2210,10 +2226,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>216</v>
+        <v>377</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -2221,7 +2237,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>377</v>
+        <v>705</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2232,7 +2248,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>705</v>
+        <v>916</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2243,7 +2259,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>916</v>
+        <v>1084</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2254,7 +2270,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1084</v>
+        <v>1305</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2265,7 +2281,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1305</v>
+        <v>1429</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2276,7 +2292,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1429</v>
+        <v>1548</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2287,7 +2303,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1548</v>
+        <v>1788</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2298,7 +2314,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1788</v>
+        <v>1982</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2309,7 +2325,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1982</v>
+        <v>2223</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2320,7 +2336,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2223</v>
+        <v>2465</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -2331,7 +2347,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2465</v>
+        <v>2578</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2342,7 +2358,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2578</v>
+        <v>2751</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2353,7 +2369,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2751</v>
+        <v>2831</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -2364,7 +2380,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2831</v>
+        <v>2949</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -2375,7 +2391,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>2949</v>
+        <v>3226</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2386,7 +2402,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3226</v>
+        <v>3392</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -2397,7 +2413,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3392</v>
+        <v>3550</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2408,7 +2424,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>3550</v>
+        <v>3637</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2419,7 +2435,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3637</v>
+        <v>3861</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2430,7 +2446,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>3861</v>
+        <v>4088</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2441,10 +2457,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>4088</v>
+        <v>4275</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -2452,10 +2468,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4275</v>
+        <v>4556</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -2463,7 +2479,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4556</v>
+        <v>4884</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2474,7 +2490,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4884</v>
+        <v>4992</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2485,10 +2501,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4992</v>
+        <v>5088</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -2496,7 +2512,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5088</v>
+        <v>5273</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2507,7 +2523,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5273</v>
+        <v>5369</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2518,7 +2534,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5369</v>
+        <v>5447</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2529,7 +2545,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5447</v>
+        <v>5760</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -2540,7 +2556,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5760</v>
+        <v>5914</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2551,7 +2567,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5914</v>
+        <v>6057</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -2562,7 +2578,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6057</v>
+        <v>6313</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -2573,7 +2589,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6313</v>
+        <v>6422</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -2584,7 +2600,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6422</v>
+        <v>6432</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2595,21 +2611,21 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6432</v>
+        <v>216</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -2617,7 +2633,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2628,7 +2644,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>512</v>
+        <v>763</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -2639,7 +2655,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>763</v>
+        <v>916</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -2650,7 +2666,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>916</v>
+        <v>1057</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2661,7 +2677,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1057</v>
+        <v>1227</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2672,7 +2688,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1227</v>
+        <v>1361</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -2683,7 +2699,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1361</v>
+        <v>1543</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -2694,7 +2710,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1543</v>
+        <v>1703</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2705,7 +2721,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1703</v>
+        <v>1893</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -2716,7 +2732,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1893</v>
+        <v>2135</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2727,7 +2743,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2135</v>
+        <v>2223</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -2738,7 +2754,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2223</v>
+        <v>2322</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2749,7 +2765,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2322</v>
+        <v>2600</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2760,7 +2776,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>2600</v>
+        <v>2794</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -2771,7 +2787,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>2794</v>
+        <v>2924</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -2782,7 +2798,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2924</v>
+        <v>3034</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2793,7 +2809,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3034</v>
+        <v>3231</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -2804,7 +2820,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3231</v>
+        <v>3353</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -2815,7 +2831,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3353</v>
+        <v>3467</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -2826,7 +2842,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3467</v>
+        <v>3716</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -2837,7 +2853,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3716</v>
+        <v>3789</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -2848,7 +2864,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3789</v>
+        <v>3929</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -2859,7 +2875,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3929</v>
+        <v>4010</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -2870,7 +2886,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>4010</v>
+        <v>4312</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -2881,7 +2897,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>4312</v>
+        <v>4556</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -2892,7 +2908,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>4556</v>
+        <v>4803</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -2903,7 +2919,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>4803</v>
+        <v>5219</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -2914,10 +2930,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5000</v>
+        <v>5361</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -2925,7 +2941,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>5219</v>
+        <v>5447</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -2936,7 +2952,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>5361</v>
+        <v>5782</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -2947,7 +2963,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>5447</v>
+        <v>5865</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -2958,7 +2974,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5782</v>
+        <v>5947</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -2969,7 +2985,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5865</v>
+        <v>6188</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -2980,7 +2996,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>5947</v>
+        <v>6432</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -2989,29 +3005,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>6188</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>6432</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="C194">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C192" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C192">
+      <sortCondition ref="C1:C192"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>